--- a/Facebook_LSC/account/accounts.xlsx
+++ b/Facebook_LSC/account/accounts.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -420,15 +420,23 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>0912710582</v>
+        <v>sifantariku1111</v>
       </c>
       <c r="B3" t="str">
-        <v>201513119tom</v>
+        <v>Squad1234</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>tomasbogale11@yahoo.com</v>
+      </c>
+      <c r="B4" t="str">
+        <v>1234Toma.</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B4"/>
   </ignoredErrors>
 </worksheet>
 </file>